--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2866.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2866.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.200054671448226</v>
+        <v>0.8574223518371582</v>
       </c>
       <c r="B1">
-        <v>2.112036206426299</v>
+        <v>1.868358016014099</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.365347623825073</v>
       </c>
       <c r="D1">
-        <v>2.135727978788825</v>
+        <v>3.781039237976074</v>
       </c>
       <c r="E1">
-        <v>1.208123892290779</v>
+        <v>0.9734551906585693</v>
       </c>
     </row>
   </sheetData>
